--- a/DataSheet/Ishine.xlsx
+++ b/DataSheet/Ishine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24FE8D5-814F-4168-8198-C3732E93B1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6C4C7-CABB-49C5-A58C-F988F81756ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="88">
   <si>
     <t>Si_No</t>
   </si>
@@ -100,9 +100,6 @@
     <t>TC_01_01_02</t>
   </si>
   <si>
-    <t>TC_01_01_03</t>
-  </si>
-  <si>
     <t>TC_01_01_04</t>
   </si>
   <si>
@@ -172,48 +169,15 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t>Wait 6 second</t>
-  </si>
-  <si>
     <t>Verify "Mahidra Finance" logo are Displayed</t>
   </si>
   <si>
-    <t>WAIT(3000)</t>
-  </si>
-  <si>
     <t>STARTBROWSER</t>
   </si>
   <si>
-    <t>URL1</t>
-  </si>
-  <si>
     <t>BROWSERURL</t>
   </si>
   <si>
-    <t>verify</t>
-  </si>
-  <si>
-    <t>//button[@type="submit"]</t>
-  </si>
-  <si>
-    <t>https://demo.automationtesting.in/Register.html</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Normal Address testing</t>
-  </si>
-  <si>
-    <t>//input[@type = 'email']</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>mail@gmail.com</t>
-  </si>
-  <si>
     <t>Ishine</t>
   </si>
   <si>
@@ -223,10 +187,109 @@
     <t>SendKeys</t>
   </si>
   <si>
-    <t>//textarea[@class='form-control ng-pristine ng-untouched ng-valid']</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>https://mmfsl--mfuat.sandbox.my.salesforce.com/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>//*[@id='username']</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>parab.vidya@mahindra.com.uat</t>
+  </si>
+  <si>
+    <t>//*[@id='password']</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Mahindra@3069</t>
+  </si>
+  <si>
+    <t>//*[@id='Login']</t>
+  </si>
+  <si>
+    <t>//div[@class='slds-icon-waffle']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search apps and items…']</t>
+  </si>
+  <si>
+    <t>SendKeysAndEnterKey</t>
+  </si>
+  <si>
+    <t>MahindraFinance</t>
+  </si>
+  <si>
+    <t>Mahindra Finance</t>
+  </si>
+  <si>
+    <t>//span[@title='Mahindra Finance']</t>
+  </si>
+  <si>
+    <t>//button[text()='Search...']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search...']</t>
+  </si>
+  <si>
+    <t>ApplicationIdSearchOnSFDC</t>
+  </si>
+  <si>
+    <t>//table[@data-aura-class=\"uiVirtualDataTable\"]/tbody/tr/th</t>
+  </si>
+  <si>
+    <t>//force-lookup[@data-output-element-id='output-field']//records-hoverable-link[@class='slds-grow has-avatar']//div[@class='slds-grid']/a/span/slot/span</t>
+  </si>
+  <si>
+    <t>//div[@title='User Detail']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@title,'Salesforce - Enterprise Edition')]</t>
+  </si>
+  <si>
+    <t>FrameSwitchUsingLOCATOR</t>
+  </si>
+  <si>
+    <t>(//input[@value=' Login '])[1]</t>
+  </si>
+  <si>
+    <t>DefaultContent</t>
+  </si>
+  <si>
+    <t>//table[@data-aura-class='uiVirtualDataTable']/tbody/tr/th/span/a</t>
+  </si>
+  <si>
+    <t>CLickOnPerticularApplicationID</t>
+  </si>
+  <si>
+    <t>//a[text() = 'Approval']</t>
+  </si>
+  <si>
+    <t>//button[@title = 'Approve']</t>
+  </si>
+  <si>
+    <t>ScrollDown(300)</t>
+  </si>
+  <si>
+    <t>//textarea[@name = 'comment']</t>
+  </si>
+  <si>
+    <t>FirstApprovalComment</t>
+  </si>
+  <si>
+    <t>First Level UW approval</t>
+  </si>
+  <si>
+    <t>//button[@title = 'Submit For Approval']</t>
+  </si>
+  <si>
+    <t>//a[starts-with(text(), 'Log out as ')]</t>
   </si>
 </sst>
 </file>
@@ -254,12 +317,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -279,9 +340,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -289,10 +349,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,21 +666,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="165" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
@@ -682,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -691,25 +752,25 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -718,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -727,34 +788,34 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A13" si="0">A3+1</f>
+        <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -762,26 +823,29 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -790,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -798,29 +862,35 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
         <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -829,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -838,34 +908,34 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -874,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -883,31 +953,31 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
@@ -919,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -927,35 +997,26 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
         <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -964,34 +1025,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>63</v>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
         <v>45</v>
       </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1000,43 +1070,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
         <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
       </c>
       <c r="N10" t="s">
         <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1045,52 +1115,52 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
         <v>46</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A12" si="1">A11+1</f>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1099,31 +1169,31 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
         <v>21</v>
@@ -1131,37 +1201,2632 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A13" si="2">A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f t="shared" ref="A14" si="3">A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f t="shared" ref="A15:A16" si="4">A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <f t="shared" ref="A17" si="5">A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <f t="shared" ref="A18:A19" si="6">A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <f t="shared" ref="A20:A21" si="7">A19+1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" ref="A22" si="8">A21+1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f t="shared" ref="A23" si="9">A22+1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <f t="shared" ref="A24:A25" si="10">A23+1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <f t="shared" ref="A26" si="11">A25+1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <f t="shared" ref="A27:A28" si="12">A26+1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <f t="shared" ref="A29:A30" si="13">A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <f t="shared" ref="A31:A32" si="14">A30+1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <f t="shared" ref="A33:A34" si="15">A32+1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <f t="shared" ref="A35:A36" si="16">A34+1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="O13" t="s">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <f t="shared" ref="A37" si="17">A36+1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <f t="shared" ref="A38" si="18">A37+1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <f t="shared" ref="A39:A40" si="19">A38+1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <f t="shared" ref="A41" si="20">A40+1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <f t="shared" ref="A42" si="21">A41+1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <f t="shared" ref="A50:A78" si="22">A49+1</f>
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N50" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" t="s">
+        <v>46</v>
+      </c>
+      <c r="N51" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>46</v>
+      </c>
+      <c r="N53" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" t="s">
+        <v>46</v>
+      </c>
+      <c r="N55" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" t="s">
+        <v>46</v>
+      </c>
+      <c r="N56" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" t="s">
+        <v>46</v>
+      </c>
+      <c r="N57" t="s">
+        <v>34</v>
+      </c>
+      <c r="O57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" t="s">
+        <v>46</v>
+      </c>
+      <c r="N58" t="s">
+        <v>34</v>
+      </c>
+      <c r="O58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" t="s">
+        <v>46</v>
+      </c>
+      <c r="N59" t="s">
+        <v>34</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" t="s">
+        <v>46</v>
+      </c>
+      <c r="N61" t="s">
+        <v>34</v>
+      </c>
+      <c r="O61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" t="s">
+        <v>34</v>
+      </c>
+      <c r="O62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N63" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L64" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" t="s">
+        <v>34</v>
+      </c>
+      <c r="O64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" t="s">
+        <v>44</v>
+      </c>
+      <c r="L66" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" t="s">
+        <v>46</v>
+      </c>
+      <c r="N67" t="s">
+        <v>34</v>
+      </c>
+      <c r="O67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" t="s">
+        <v>44</v>
+      </c>
+      <c r="L68" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" t="s">
+        <v>34</v>
+      </c>
+      <c r="O68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s">
+        <v>44</v>
+      </c>
+      <c r="L69" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" t="s">
+        <v>46</v>
+      </c>
+      <c r="N69" t="s">
+        <v>34</v>
+      </c>
+      <c r="O69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
+        <v>44</v>
+      </c>
+      <c r="L70" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" t="s">
+        <v>34</v>
+      </c>
+      <c r="O70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" t="s">
+        <v>46</v>
+      </c>
+      <c r="N71" t="s">
+        <v>34</v>
+      </c>
+      <c r="O71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
+        <v>46</v>
+      </c>
+      <c r="N72" t="s">
+        <v>35</v>
+      </c>
+      <c r="O72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s">
+        <v>44</v>
+      </c>
+      <c r="L73" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" t="s">
+        <v>46</v>
+      </c>
+      <c r="N73" t="s">
+        <v>34</v>
+      </c>
+      <c r="O73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" t="s">
+        <v>46</v>
+      </c>
+      <c r="N74" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" t="s">
+        <v>46</v>
+      </c>
+      <c r="N75" t="s">
+        <v>34</v>
+      </c>
+      <c r="O75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <f t="shared" si="22"/>
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L76" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" t="s">
+        <v>46</v>
+      </c>
+      <c r="N76" t="s">
+        <v>34</v>
+      </c>
+      <c r="O76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L77" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" t="s">
+        <v>46</v>
+      </c>
+      <c r="N77" t="s">
+        <v>34</v>
+      </c>
+      <c r="O77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <f t="shared" si="22"/>
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" t="s">
+        <v>44</v>
+      </c>
+      <c r="L78" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" t="s">
+        <v>46</v>
+      </c>
+      <c r="N78" t="s">
+        <v>34</v>
+      </c>
+      <c r="O78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <f>A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>44</v>
+      </c>
+      <c r="L103" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" t="s">
+        <v>46</v>
+      </c>
+      <c r="N103" t="s">
+        <v>34</v>
+      </c>
+      <c r="O103" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1173,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,9 +3851,14 @@
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,25 +3866,31 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1222,7 +3898,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1230,47 +3906,23 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>61</v>
+      <c r="J2" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{0722BD43-0396-4975-8F8E-8E351DD34A05}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{FE5C2D5D-1AA2-4EDD-84F3-F58DA483836E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataSheet/Ishine.xlsx
+++ b/DataSheet/Ishine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6C4C7-CABB-49C5-A58C-F988F81756ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64408CB1-06B8-4A2D-BC61-8023C8C7861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="95">
   <si>
     <t>Si_No</t>
   </si>
@@ -124,172 +124,193 @@
     <t>CLICK</t>
   </si>
   <si>
+    <t>DriverStart</t>
+  </si>
+  <si>
+    <t>TC_01_01_06</t>
+  </si>
+  <si>
+    <t>TC_01_01_07</t>
+  </si>
+  <si>
+    <t>Click on Application ID Tab</t>
+  </si>
+  <si>
+    <t>TC_01_02</t>
+  </si>
+  <si>
+    <t>TC_01_02_01</t>
+  </si>
+  <si>
+    <t>TC_01_02_02</t>
+  </si>
+  <si>
+    <t>ExecutionStart Count Time</t>
+  </si>
+  <si>
+    <t>Verify Application button are display</t>
+  </si>
+  <si>
+    <t>CheckVisibility</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FOS Application Functionality</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Verify "Mahidra Finance" logo are Displayed</t>
+  </si>
+  <si>
+    <t>STARTBROWSER</t>
+  </si>
+  <si>
+    <t>BROWSERURL</t>
+  </si>
+  <si>
+    <t>Ishine</t>
+  </si>
+  <si>
+    <t>WAIT(1000)</t>
+  </si>
+  <si>
+    <t>SendKeys</t>
+  </si>
+  <si>
+    <t>https://mmfsl--mfuat.sandbox.my.salesforce.com/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>//*[@id='username']</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>parab.vidya@mahindra.com.uat</t>
+  </si>
+  <si>
+    <t>//*[@id='password']</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Mahindra@3069</t>
+  </si>
+  <si>
+    <t>//*[@id='Login']</t>
+  </si>
+  <si>
+    <t>//div[@class='slds-icon-waffle']</t>
+  </si>
+  <si>
+    <t>SendKeysAndEnterKey</t>
+  </si>
+  <si>
+    <t>MahindraFinance</t>
+  </si>
+  <si>
+    <t>Mahindra Finance</t>
+  </si>
+  <si>
+    <t>//span[@title='Mahindra Finance']</t>
+  </si>
+  <si>
+    <t>//button[text()='Search...']</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search...']</t>
+  </si>
+  <si>
+    <t>ApplicationIdSearchOnSFDC</t>
+  </si>
+  <si>
+    <t>//force-lookup[@data-output-element-id='output-field']//records-hoverable-link[@class='slds-grow has-avatar']//div[@class='slds-grid']/a/span/slot/span</t>
+  </si>
+  <si>
+    <t>//div[@title='User Detail']</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@title,'Salesforce - Enterprise Edition')]</t>
+  </si>
+  <si>
+    <t>FrameSwitchUsingLOCATOR</t>
+  </si>
+  <si>
+    <t>(//input[@value=' Login '])[1]</t>
+  </si>
+  <si>
+    <t>DefaultContent</t>
+  </si>
+  <si>
+    <t>//table[@data-aura-class='uiVirtualDataTable']/tbody/tr/th/span/a</t>
+  </si>
+  <si>
+    <t>CLickOnPerticularApplicationID</t>
+  </si>
+  <si>
+    <t>//a[text() = 'Approval']</t>
+  </si>
+  <si>
+    <t>//button[@title = 'Approve']</t>
+  </si>
+  <si>
+    <t>ScrollDown(300)</t>
+  </si>
+  <si>
+    <t>//textarea[@name = 'comment']</t>
+  </si>
+  <si>
+    <t>FirstApprovalComment</t>
+  </si>
+  <si>
+    <t>First Level UW approval</t>
+  </si>
+  <si>
+    <t>//button[@title = 'Submit For Approval']</t>
+  </si>
+  <si>
+    <t>//a[starts-with(text(), 'Log out as ')]</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>WAIT(5000)</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search apps and items...']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //table[@data-aura-class='uiVirtualDataTable']/tbody/tr/th</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search Approvals and more...']</t>
+  </si>
+  <si>
+    <t>SecondApprovalComment</t>
+  </si>
+  <si>
+    <t>Second Level UW approval</t>
+  </si>
+  <si>
+    <t>SFDC_SearchBar</t>
+  </si>
+  <si>
     <t>QUIT</t>
   </si>
   <si>
-    <t>DriverStart</t>
-  </si>
-  <si>
-    <t>TC_01_01_06</t>
-  </si>
-  <si>
-    <t>TC_01_01_07</t>
-  </si>
-  <si>
-    <t>Click on Application ID Tab</t>
-  </si>
-  <si>
-    <t>TC_01_02</t>
-  </si>
-  <si>
-    <t>TC_01_02_01</t>
-  </si>
-  <si>
-    <t>TC_01_02_02</t>
-  </si>
-  <si>
-    <t>ExecutionStart Count Time</t>
-  </si>
-  <si>
-    <t>Verify Application button are display</t>
-  </si>
-  <si>
-    <t>CheckVisibility</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FOS Application Functionality</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t>Verify "Mahidra Finance" logo are Displayed</t>
-  </si>
-  <si>
-    <t>STARTBROWSER</t>
-  </si>
-  <si>
-    <t>BROWSERURL</t>
-  </si>
-  <si>
-    <t>Ishine</t>
-  </si>
-  <si>
-    <t>WAIT(1000)</t>
-  </si>
-  <si>
-    <t>SendKeys</t>
-  </si>
-  <si>
-    <t>https://mmfsl--mfuat.sandbox.my.salesforce.com/</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>//*[@id='username']</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>parab.vidya@mahindra.com.uat</t>
-  </si>
-  <si>
-    <t>//*[@id='password']</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Mahindra@3069</t>
-  </si>
-  <si>
-    <t>//*[@id='Login']</t>
-  </si>
-  <si>
-    <t>//div[@class='slds-icon-waffle']</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Search apps and items…']</t>
-  </si>
-  <si>
-    <t>SendKeysAndEnterKey</t>
-  </si>
-  <si>
-    <t>MahindraFinance</t>
-  </si>
-  <si>
-    <t>Mahindra Finance</t>
-  </si>
-  <si>
-    <t>//span[@title='Mahindra Finance']</t>
-  </si>
-  <si>
-    <t>//button[text()='Search...']</t>
-  </si>
-  <si>
-    <t>//input[@placeholder='Search...']</t>
-  </si>
-  <si>
-    <t>ApplicationIdSearchOnSFDC</t>
-  </si>
-  <si>
-    <t>//table[@data-aura-class=\"uiVirtualDataTable\"]/tbody/tr/th</t>
-  </si>
-  <si>
-    <t>//force-lookup[@data-output-element-id='output-field']//records-hoverable-link[@class='slds-grow has-avatar']//div[@class='slds-grid']/a/span/slot/span</t>
-  </si>
-  <si>
-    <t>//div[@title='User Detail']</t>
-  </si>
-  <si>
-    <t>//iframe[contains(@title,'Salesforce - Enterprise Edition')]</t>
-  </si>
-  <si>
-    <t>FrameSwitchUsingLOCATOR</t>
-  </si>
-  <si>
-    <t>(//input[@value=' Login '])[1]</t>
-  </si>
-  <si>
-    <t>DefaultContent</t>
-  </si>
-  <si>
-    <t>//table[@data-aura-class='uiVirtualDataTable']/tbody/tr/th/span/a</t>
-  </si>
-  <si>
-    <t>CLickOnPerticularApplicationID</t>
-  </si>
-  <si>
-    <t>//a[text() = 'Approval']</t>
-  </si>
-  <si>
-    <t>//button[@title = 'Approve']</t>
-  </si>
-  <si>
-    <t>ScrollDown(300)</t>
-  </si>
-  <si>
-    <t>//textarea[@name = 'comment']</t>
-  </si>
-  <si>
-    <t>FirstApprovalComment</t>
-  </si>
-  <si>
-    <t>First Level UW approval</t>
-  </si>
-  <si>
-    <t>//button[@title = 'Submit For Approval']</t>
-  </si>
-  <si>
-    <t>//a[starts-with(text(), 'Log out as ')]</t>
+    <t>WAIT(3000)</t>
   </si>
 </sst>
 </file>
@@ -323,12 +344,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -343,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="74" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -758,19 +786,19 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -779,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -788,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -815,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -824,28 +852,28 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -854,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -866,25 +894,25 @@
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
         <v>25</v>
@@ -899,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -911,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -923,16 +951,16 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
@@ -944,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -956,28 +984,28 @@
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
@@ -989,31 +1017,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
         <v>22</v>
@@ -1025,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1037,31 +1065,31 @@
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
         <v>44</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1070,10 +1098,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1082,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -1094,19 +1122,19 @@
         <v>16</v>
       </c>
       <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
         <v>44</v>
       </c>
-      <c r="L10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
-        <v>45</v>
-      </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1115,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1127,28 +1155,28 @@
         <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s">
         <v>21</v>
@@ -1160,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1172,28 +1200,28 @@
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" t="s">
         <v>21</v>
@@ -1205,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1217,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -1229,16 +1257,16 @@
         <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" t="s">
         <v>21</v>
@@ -1250,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1262,28 +1290,28 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O14" t="s">
         <v>21</v>
@@ -1295,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1307,7 +1335,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -1319,16 +1347,16 @@
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" t="s">
         <v>21</v>
@@ -1340,52 +1368,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
+      <c r="D16" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
         <v>34</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" ref="A17" si="5">A16+1</f>
-        <v>16</v>
+        <f>A15+1</f>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1397,28 +1416,28 @@
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O17" t="s">
         <v>21</v>
@@ -1426,11 +1445,11 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" ref="A18:A19" si="6">A17+1</f>
-        <v>17</v>
+        <f t="shared" ref="A18" si="5">A17+1</f>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1442,28 +1461,28 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O18" t="s">
         <v>21</v>
@@ -1471,11 +1490,11 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" ref="A19:A20" si="6">A18+1</f>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1487,28 +1506,28 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s">
         <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" t="s">
         <v>21</v>
@@ -1516,11 +1535,11 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" ref="A20:A21" si="7">A19+1</f>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1532,28 +1551,28 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" t="s">
         <v>21</v>
@@ -1561,53 +1580,56 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
+        <f t="shared" ref="A21:A22" si="7">A20+1</f>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <f t="shared" ref="A22" si="8">A21+1</f>
-        <v>21</v>
-      </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1619,28 +1641,25 @@
         <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L22" t="s">
         <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" t="s">
         <v>21</v>
@@ -1648,11 +1667,11 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" ref="A23" si="9">A22+1</f>
-        <v>22</v>
+        <f t="shared" ref="A23" si="8">A22+1</f>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1664,28 +1683,28 @@
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L23" t="s">
         <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
         <v>21</v>
@@ -1693,11 +1712,11 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" ref="A24:A25" si="10">A23+1</f>
-        <v>23</v>
+        <f t="shared" ref="A24" si="9">A23+1</f>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1709,28 +1728,28 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O24" t="s">
         <v>21</v>
@@ -1738,89 +1757,89 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
+        <f t="shared" ref="A25:A26" si="10">A24+1</f>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" t="s">
-        <v>34</v>
-      </c>
-      <c r="O25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <f t="shared" ref="A26" si="11">A25+1</f>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
       </c>
       <c r="M26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O26" t="s">
         <v>21</v>
@@ -1828,41 +1847,44 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" ref="A27:A28" si="12">A26+1</f>
+        <f t="shared" ref="A27" si="11">A26+1</f>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
         <v>18</v>
       </c>
       <c r="M27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O27" t="s">
         <v>21</v>
@@ -1870,89 +1892,86 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <f t="shared" ref="A28:A29" si="12">A27+1</f>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <f t="shared" ref="A29:A30" si="13">A28+1</f>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L29" t="s">
         <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O29" t="s">
         <v>21</v>
@@ -1960,47 +1979,56 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <f t="shared" ref="A30:A31" si="13">A29+1</f>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <f t="shared" ref="A31:A32" si="14">A30+1</f>
-        <v>30</v>
-      </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -2008,116 +2036,110 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" t="s">
         <v>18</v>
       </c>
       <c r="M31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N31" t="s">
         <v>34</v>
       </c>
       <c r="O31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <f t="shared" ref="A32:A36" si="14">A31+1</f>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" t="s">
-        <v>34</v>
-      </c>
-      <c r="O32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <f t="shared" ref="A33:A34" si="15">A32+1</f>
-        <v>32</v>
-      </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" t="s">
-        <v>15</v>
+      <c r="D33" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" t="s">
         <v>18</v>
       </c>
       <c r="M33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O33" t="s">
         <v>21</v>
@@ -2125,44 +2147,41 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="15"/>
-        <v>33</v>
+        <f t="shared" si="14"/>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
-        <v>15</v>
+      <c r="D34" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
+      <c r="F34" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L34" t="s">
         <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
         <v>21</v>
@@ -2170,11 +2189,11 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" ref="A35:A36" si="16">A34+1</f>
-        <v>34</v>
+        <f t="shared" si="14"/>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -2182,44 +2201,35 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L35" t="s">
         <v>18</v>
       </c>
       <c r="M35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N35" t="s">
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="16"/>
-        <v>35</v>
+        <f t="shared" si="14"/>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -2228,22 +2238,22 @@
         <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
       </c>
       <c r="M36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36" t="s">
         <v>22</v>
@@ -2251,11 +2261,11 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" ref="A37" si="17">A36+1</f>
-        <v>36</v>
+        <f>A35+1</f>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -2263,44 +2273,35 @@
       <c r="D37" t="s">
         <v>15</v>
       </c>
-      <c r="E37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L37" t="s">
         <v>18</v>
       </c>
       <c r="M37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N37" t="s">
         <v>34</v>
       </c>
       <c r="O37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" ref="A38" si="18">A37+1</f>
-        <v>37</v>
+        <f>A33+1</f>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -2308,32 +2309,26 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L38" t="s">
         <v>18</v>
       </c>
       <c r="M38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O38" t="s">
         <v>21</v>
@@ -2341,11 +2336,11 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f t="shared" ref="A39:A40" si="19">A38+1</f>
-        <v>38</v>
+        <f>A38+1</f>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -2356,29 +2351,29 @@
       <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>83</v>
+      <c r="F39" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L39" t="s">
         <v>18</v>
       </c>
       <c r="M39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O39" t="s">
         <v>21</v>
@@ -2386,11 +2381,11 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <f t="shared" ref="A40:A41" si="15">A39+1</f>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -2402,7 +2397,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
@@ -2414,16 +2409,16 @@
         <v>16</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L40" t="s">
         <v>18</v>
       </c>
       <c r="M40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O40" t="s">
         <v>21</v>
@@ -2431,11 +2426,11 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <f t="shared" ref="A41" si="20">A40+1</f>
-        <v>40</v>
+        <f t="shared" si="15"/>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -2443,44 +2438,35 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L41" t="s">
         <v>18</v>
       </c>
       <c r="M41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N41" t="s">
         <v>34</v>
       </c>
       <c r="O41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <f t="shared" ref="A42" si="21">A41+1</f>
-        <v>41</v>
+        <f t="shared" ref="A42" si="16">A41+1</f>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -2492,7 +2478,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
@@ -2504,520 +2490,253 @@
         <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L42" t="s">
         <v>18</v>
       </c>
       <c r="M42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <f t="shared" ref="A50:A78" si="22">A49+1</f>
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <f t="shared" ref="A43" si="17">A42+1</f>
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f t="shared" ref="A44:A45" si="18">A43+1</f>
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J50" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" t="s">
-        <v>46</v>
-      </c>
-      <c r="N50" t="s">
-        <v>34</v>
-      </c>
-      <c r="O50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" t="s">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J51" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" t="s">
-        <v>44</v>
-      </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" t="s">
-        <v>46</v>
-      </c>
-      <c r="N51" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" t="s">
+        <v>43</v>
+      </c>
+      <c r="L45" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <f t="shared" ref="A46" si="19">A45+1</f>
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J52" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" t="s">
-        <v>46</v>
-      </c>
-      <c r="N52" t="s">
-        <v>34</v>
-      </c>
-      <c r="O52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <f t="shared" ref="A47" si="20">A46+1</f>
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J53" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" t="s">
-        <v>46</v>
-      </c>
-      <c r="N53" t="s">
-        <v>34</v>
-      </c>
-      <c r="O53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" t="s">
-        <v>46</v>
-      </c>
-      <c r="N54" t="s">
-        <v>34</v>
-      </c>
-      <c r="O54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" t="s">
-        <v>44</v>
-      </c>
-      <c r="L55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" t="s">
-        <v>46</v>
-      </c>
-      <c r="N55" t="s">
-        <v>34</v>
-      </c>
-      <c r="O55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L56" t="s">
-        <v>18</v>
-      </c>
-      <c r="M56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N56" t="s">
-        <v>34</v>
-      </c>
-      <c r="O56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J57" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" t="s">
-        <v>46</v>
-      </c>
-      <c r="N57" t="s">
-        <v>34</v>
-      </c>
-      <c r="O57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J58" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" t="s">
-        <v>44</v>
-      </c>
-      <c r="L58" t="s">
-        <v>18</v>
-      </c>
-      <c r="M58" t="s">
-        <v>46</v>
-      </c>
-      <c r="N58" t="s">
-        <v>34</v>
-      </c>
-      <c r="O58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J59" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" t="s">
-        <v>44</v>
-      </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" t="s">
-        <v>46</v>
-      </c>
-      <c r="N59" t="s">
-        <v>34</v>
-      </c>
-      <c r="O59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <f t="shared" si="22"/>
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J60" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" t="s">
-        <v>46</v>
-      </c>
-      <c r="N60" t="s">
-        <v>34</v>
-      </c>
-      <c r="O60" t="s">
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" ref="A61:A62" si="21">A60+1</f>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -3029,28 +2748,28 @@
         <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s">
         <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L61" t="s">
         <v>18</v>
       </c>
       <c r="M61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O61" t="s">
         <v>21</v>
@@ -3058,11 +2777,11 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <f t="shared" si="22"/>
-        <v>13</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -3074,7 +2793,7 @@
         <v>30</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -3086,16 +2805,16 @@
         <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L62" t="s">
         <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O62" t="s">
         <v>21</v>
@@ -3103,11 +2822,11 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <f t="shared" si="22"/>
-        <v>14</v>
+        <f>A61+1</f>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -3119,25 +2838,28 @@
         <v>30</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="J63" t="s">
         <v>16</v>
       </c>
       <c r="K63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L63" t="s">
         <v>18</v>
       </c>
       <c r="M63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O63" t="s">
         <v>21</v>
@@ -3145,11 +2867,11 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" ref="A64:A80" si="22">A63+1</f>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -3161,28 +2883,28 @@
         <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J64" t="s">
         <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L64" t="s">
         <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O64" t="s">
         <v>21</v>
@@ -3191,10 +2913,10 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -3206,28 +2928,28 @@
         <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="J65" t="s">
         <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L65" t="s">
         <v>18</v>
       </c>
       <c r="M65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O65" t="s">
         <v>21</v>
@@ -3236,10 +2958,10 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -3247,35 +2969,44 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
       <c r="H66" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="J66" t="s">
         <v>16</v>
       </c>
       <c r="K66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L66" t="s">
         <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -3287,7 +3018,7 @@
         <v>30</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -3299,16 +3030,16 @@
         <v>16</v>
       </c>
       <c r="K67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L67" t="s">
         <v>18</v>
       </c>
       <c r="M67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O67" t="s">
         <v>21</v>
@@ -3317,10 +3048,10 @@
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -3332,25 +3063,25 @@
         <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J68" t="s">
         <v>16</v>
       </c>
       <c r="K68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L68" t="s">
         <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O68" t="s">
         <v>21</v>
@@ -3359,10 +3090,10 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -3374,25 +3105,28 @@
         <v>30</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="J69" t="s">
         <v>16</v>
       </c>
       <c r="K69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L69" t="s">
         <v>18</v>
       </c>
       <c r="M69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O69" t="s">
         <v>21</v>
@@ -3401,10 +3135,10 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -3415,29 +3149,29 @@
       <c r="E70" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>80</v>
+      <c r="F70" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G70" t="s">
         <v>27</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s">
         <v>16</v>
       </c>
       <c r="K70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L70" t="s">
         <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O70" t="s">
         <v>21</v>
@@ -3446,10 +3180,10 @@
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -3461,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -3473,16 +3207,16 @@
         <v>16</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L71" t="s">
         <v>18</v>
       </c>
       <c r="M71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O71" t="s">
         <v>21</v>
@@ -3491,10 +3225,10 @@
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -3502,35 +3236,44 @@
       <c r="D72" t="s">
         <v>15</v>
       </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
       </c>
       <c r="K72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L72" t="s">
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -3542,7 +3285,7 @@
         <v>30</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G73" t="s">
         <v>26</v>
@@ -3554,16 +3297,16 @@
         <v>16</v>
       </c>
       <c r="K73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L73" t="s">
         <v>18</v>
       </c>
       <c r="M73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O73" t="s">
         <v>21</v>
@@ -3572,10 +3315,10 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" si="22"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -3587,28 +3330,25 @@
         <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="J74" t="s">
         <v>16</v>
       </c>
       <c r="K74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L74" t="s">
         <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O74" t="s">
         <v>21</v>
@@ -3617,10 +3357,10 @@
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" si="22"/>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -3632,28 +3372,28 @@
         <v>30</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s">
         <v>16</v>
       </c>
       <c r="K75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L75" t="s">
         <v>18</v>
       </c>
       <c r="M75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O75" t="s">
         <v>21</v>
@@ -3662,10 +3402,10 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" si="22"/>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -3677,7 +3417,7 @@
         <v>30</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
@@ -3689,16 +3429,16 @@
         <v>16</v>
       </c>
       <c r="K76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L76" t="s">
         <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O76" t="s">
         <v>21</v>
@@ -3707,10 +3447,10 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" si="22"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -3718,44 +3458,35 @@
       <c r="D77" t="s">
         <v>15</v>
       </c>
-      <c r="E77" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J77" t="s">
         <v>16</v>
       </c>
       <c r="K77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L77" t="s">
         <v>18</v>
       </c>
       <c r="M77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N77" t="s">
         <v>34</v>
       </c>
       <c r="O77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" si="22"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -3767,7 +3498,7 @@
         <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G78" t="s">
         <v>26</v>
@@ -3779,54 +3510,682 @@
         <v>16</v>
       </c>
       <c r="K78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L78" t="s">
         <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N78" t="s">
+        <v>33</v>
+      </c>
+      <c r="O78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" t="s">
+        <v>43</v>
+      </c>
+      <c r="L79" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N79" t="s">
+        <v>33</v>
+      </c>
+      <c r="O79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" t="s">
+        <v>43</v>
+      </c>
+      <c r="L80" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" t="s">
+        <v>45</v>
+      </c>
+      <c r="N80" t="s">
+        <v>33</v>
+      </c>
+      <c r="O80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <f t="shared" ref="A81:A94" si="23">A80+1</f>
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s">
+        <v>43</v>
+      </c>
+      <c r="L81" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" t="s">
+        <v>45</v>
+      </c>
+      <c r="N81" t="s">
         <v>34</v>
       </c>
-      <c r="O78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <f>A11+1</f>
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" t="s">
-        <v>17</v>
-      </c>
-      <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" t="s">
-        <v>32</v>
-      </c>
-      <c r="J103" t="s">
-        <v>16</v>
-      </c>
-      <c r="K103" t="s">
-        <v>44</v>
-      </c>
-      <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s">
-        <v>46</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="O81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" t="s">
+        <v>43</v>
+      </c>
+      <c r="L82" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" t="s">
+        <v>45</v>
+      </c>
+      <c r="N82" t="s">
         <v>34</v>
       </c>
-      <c r="O103" t="s">
+      <c r="O82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <f>A81+1</f>
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="s">
+        <v>43</v>
+      </c>
+      <c r="L83" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" t="s">
+        <v>45</v>
+      </c>
+      <c r="N83" t="s">
+        <v>34</v>
+      </c>
+      <c r="O83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <f>A79+1</f>
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" t="s">
+        <v>43</v>
+      </c>
+      <c r="L84" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" t="s">
+        <v>45</v>
+      </c>
+      <c r="N84" t="s">
+        <v>33</v>
+      </c>
+      <c r="O84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" t="s">
+        <v>43</v>
+      </c>
+      <c r="L85" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" t="s">
+        <v>45</v>
+      </c>
+      <c r="N85" t="s">
+        <v>33</v>
+      </c>
+      <c r="O85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" t="s">
+        <v>43</v>
+      </c>
+      <c r="L86" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" t="s">
+        <v>45</v>
+      </c>
+      <c r="N86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <f t="shared" si="23"/>
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="s">
+        <v>43</v>
+      </c>
+      <c r="L87" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" t="s">
+        <v>45</v>
+      </c>
+      <c r="N87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s">
+        <v>43</v>
+      </c>
+      <c r="L88" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" t="s">
+        <v>45</v>
+      </c>
+      <c r="N88" t="s">
+        <v>33</v>
+      </c>
+      <c r="O88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s">
+        <v>90</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" t="s">
+        <v>43</v>
+      </c>
+      <c r="L89" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" t="s">
+        <v>45</v>
+      </c>
+      <c r="N89" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <f t="shared" si="23"/>
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L90" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" t="s">
+        <v>45</v>
+      </c>
+      <c r="N90" t="s">
+        <v>33</v>
+      </c>
+      <c r="O90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <f t="shared" si="23"/>
+        <v>26</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" t="s">
+        <v>43</v>
+      </c>
+      <c r="L91" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" t="s">
+        <v>45</v>
+      </c>
+      <c r="N91" t="s">
+        <v>33</v>
+      </c>
+      <c r="O91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <f t="shared" si="23"/>
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="s">
+        <v>43</v>
+      </c>
+      <c r="L92" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" t="s">
+        <v>45</v>
+      </c>
+      <c r="N92" t="s">
+        <v>33</v>
+      </c>
+      <c r="O92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <f t="shared" si="23"/>
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G93" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="s">
+        <v>43</v>
+      </c>
+      <c r="L93" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" t="s">
+        <v>45</v>
+      </c>
+      <c r="N93" t="s">
+        <v>33</v>
+      </c>
+      <c r="O93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <f t="shared" si="23"/>
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" t="s">
+        <v>43</v>
+      </c>
+      <c r="L94" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>45</v>
+      </c>
+      <c r="N94" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3838,10 +4197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3858,7 +4217,7 @@
     <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3875,22 +4234,25 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3898,7 +4260,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -3907,19 +4269,22 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/Ishine.xlsx
+++ b/DataSheet/Ishine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64408CB1-06B8-4A2D-BC61-8023C8C7861C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68C3CBC-9377-4EDA-8DFE-3141A8A3D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="95">
   <si>
     <t>Si_No</t>
   </si>
@@ -694,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="74" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="74" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,83 +803,80 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
+        <f t="shared" ref="A3" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="A5:A12" si="1">A4+1</f>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
@@ -890,17 +887,11 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -915,16 +906,16 @@
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -942,10 +933,10 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -960,16 +951,16 @@
         <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
@@ -987,10 +978,10 @@
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1013,8 +1004,8 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -1025,8 +1016,17 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -1041,37 +1041,28 @@
         <v>45</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1080,22 +1071,22 @@
         <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
@@ -1113,10 +1104,10 @@
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -1131,22 +1122,22 @@
         <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1158,10 +1149,10 @@
         <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1170,22 +1161,22 @@
         <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" ref="A12" si="1">A11+1</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -1200,13 +1191,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -1230,7 +1221,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ref="A13" si="2">A12+1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -1248,10 +1239,10 @@
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1275,7 +1266,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ref="A14" si="3">A13+1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
@@ -1290,13 +1281,13 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1319,8 +1310,8 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" ref="A15:A16" si="4">A14+1</f>
-        <v>14</v>
+        <f t="shared" ref="A15" si="4">A14+1</f>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
@@ -1338,10 +1329,10 @@
         <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -1364,8 +1355,8 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" ref="A16:A17" si="5">A15+1</f>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
@@ -1373,11 +1364,20 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>85</v>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1392,15 +1392,15 @@
         <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f>A15+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1409,20 +1409,11 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
+      <c r="D17" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1437,16 +1428,16 @@
         <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" ref="A18" si="5">A17+1</f>
-        <v>16</v>
+        <f>A16+1</f>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
@@ -1464,10 +1455,10 @@
         <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -1490,8 +1481,8 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" ref="A19:A20" si="6">A18+1</f>
-        <v>17</v>
+        <f t="shared" ref="A19" si="6">A18+1</f>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
@@ -1509,10 +1500,10 @@
         <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -1535,8 +1526,8 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" ref="A20:A22" si="7">A19+1</f>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -1551,13 +1542,13 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -1580,8 +1571,8 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" ref="A21:A22" si="7">A20+1</f>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -1596,13 +1587,13 @@
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -1626,7 +1617,7 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -1637,14 +1628,8 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -1659,16 +1644,16 @@
         <v>45</v>
       </c>
       <c r="N22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" ref="A23" si="8">A22+1</f>
-        <v>21</v>
+        <f>A21+1</f>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -1683,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1712,8 +1697,8 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" ref="A24" si="9">A23+1</f>
-        <v>22</v>
+        <f t="shared" ref="A24:A25" si="8">A23+1</f>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -1728,13 +1713,10 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
@@ -1757,8 +1739,8 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" ref="A25:A26" si="10">A24+1</f>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -1769,17 +1751,8 @@
       <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -1794,16 +1767,16 @@
         <v>45</v>
       </c>
       <c r="N25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="10"/>
-        <v>24</v>
+        <f t="shared" ref="A26" si="9">A24+1</f>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -1818,13 +1791,13 @@
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -1847,8 +1820,8 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" ref="A27" si="11">A26+1</f>
-        <v>25</v>
+        <f t="shared" ref="A27" si="10">A26+1</f>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
@@ -1863,13 +1836,13 @@
         <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -1892,26 +1865,29 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" ref="A28:A29" si="12">A27+1</f>
+        <f t="shared" ref="A28:A29" si="11">A27+1</f>
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
@@ -1934,8 +1910,8 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="12"/>
-        <v>27</v>
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
@@ -1950,7 +1926,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -1979,8 +1955,8 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" ref="A30:A31" si="13">A29+1</f>
-        <v>28</v>
+        <f t="shared" ref="A30" si="12">A29+1</f>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
@@ -1995,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
@@ -2024,8 +2000,8 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="13"/>
-        <v>29</v>
+        <f t="shared" ref="A31:A32" si="13">A30+1</f>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
@@ -2036,8 +2012,14 @@
       <c r="D31" t="s">
         <v>15</v>
       </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -2052,16 +2034,16 @@
         <v>45</v>
       </c>
       <c r="N31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" ref="A32:A36" si="14">A31+1</f>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -2076,13 +2058,13 @@
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
         <v>16</v>
@@ -2105,26 +2087,29 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A33:A34" si="14">A32+1</f>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
@@ -2148,7 +2133,7 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -2156,17 +2141,11 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>89</v>
+      <c r="D34" t="s">
+        <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -2181,16 +2160,16 @@
         <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="14"/>
-        <v>33</v>
+        <f t="shared" ref="A35:A39" si="15">A34+1</f>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -2201,8 +2180,17 @@
       <c r="D35" t="s">
         <v>15</v>
       </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -2217,16 +2205,16 @@
         <v>45</v>
       </c>
       <c r="N35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="14"/>
-        <v>34</v>
+        <f t="shared" si="15"/>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -2234,11 +2222,17 @@
       <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" t="s">
-        <v>15</v>
+      <c r="D36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -2253,16 +2247,16 @@
         <v>45</v>
       </c>
       <c r="N36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f>A35+1</f>
-        <v>34</v>
+        <f t="shared" si="15"/>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>49</v>
@@ -2270,11 +2264,17 @@
       <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
+      <c r="D37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -2289,16 +2289,16 @@
         <v>45</v>
       </c>
       <c r="N37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f>A33+1</f>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
         <v>49</v>
@@ -2309,11 +2309,8 @@
       <c r="D38" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -2328,16 +2325,16 @@
         <v>45</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <f>A38+1</f>
-        <v>33</v>
+        <f t="shared" si="15"/>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -2348,17 +2345,8 @@
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -2373,15 +2361,15 @@
         <v>45</v>
       </c>
       <c r="N39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <f t="shared" ref="A40:A41" si="15">A39+1</f>
+        <f>A38+1</f>
         <v>34</v>
       </c>
       <c r="B40" t="s">
@@ -2393,17 +2381,8 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -2418,16 +2397,16 @@
         <v>45</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <f t="shared" si="15"/>
-        <v>35</v>
+        <f>A36+1</f>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
@@ -2438,8 +2417,11 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -2454,16 +2436,16 @@
         <v>45</v>
       </c>
       <c r="N41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <f t="shared" ref="A42" si="16">A41+1</f>
-        <v>36</v>
+        <f>A41+1</f>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
@@ -2477,14 +2459,14 @@
       <c r="E42" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>80</v>
+      <c r="F42" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
@@ -2507,8 +2489,8 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <f t="shared" ref="A43" si="17">A42+1</f>
-        <v>37</v>
+        <f t="shared" ref="A43:A44" si="16">A42+1</f>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>49</v>
@@ -2523,13 +2505,13 @@
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J43" t="s">
         <v>16</v>
@@ -2552,8 +2534,8 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <f t="shared" ref="A44:A45" si="18">A43+1</f>
-        <v>38</v>
+        <f t="shared" si="16"/>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
@@ -2564,17 +2546,8 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
@@ -2589,16 +2562,16 @@
         <v>45</v>
       </c>
       <c r="N44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <f t="shared" si="18"/>
-        <v>39</v>
+        <f t="shared" ref="A45" si="17">A44+1</f>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -2613,7 +2586,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -2642,8 +2615,8 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <f t="shared" ref="A46" si="19">A45+1</f>
-        <v>40</v>
+        <f t="shared" ref="A46" si="18">A45+1</f>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
@@ -2658,13 +2631,13 @@
         <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>
@@ -2687,188 +2660,188 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <f t="shared" ref="A47" si="20">A46+1</f>
+        <f t="shared" ref="A47:A48" si="19">A46+1</f>
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N47" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <f t="shared" ref="A49" si="20">A48+1</f>
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L49" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <f t="shared" ref="A50" si="21">A49+1</f>
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s">
-        <v>43</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>45</v>
-      </c>
-      <c r="N47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <f t="shared" ref="A61:A62" si="21">A60+1</f>
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J61" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" t="s">
-        <v>43</v>
-      </c>
-      <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" t="s">
-        <v>45</v>
-      </c>
-      <c r="N61" t="s">
-        <v>33</v>
-      </c>
-      <c r="O61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J62" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" t="s">
-        <v>43</v>
-      </c>
-      <c r="L62" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62" t="s">
-        <v>45</v>
-      </c>
-      <c r="N62" t="s">
-        <v>33</v>
-      </c>
-      <c r="O62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <f>A61+1</f>
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J63" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" t="s">
-        <v>43</v>
-      </c>
-      <c r="L63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" t="s">
-        <v>45</v>
-      </c>
-      <c r="N63" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" t="s">
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>43</v>
+      </c>
+      <c r="L50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <f t="shared" ref="A64:A80" si="22">A63+1</f>
-        <v>3</v>
+        <f t="shared" ref="A64:A65" si="22">A63+1</f>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -2883,13 +2856,13 @@
         <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s">
         <v>16</v>
@@ -2913,7 +2886,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -2928,13 +2901,13 @@
         <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J65" t="s">
         <v>16</v>
@@ -2957,8 +2930,8 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f>A64+1</f>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -2973,7 +2946,7 @@
         <v>30</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
@@ -3002,8 +2975,8 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <f t="shared" si="22"/>
-        <v>6</v>
+        <f t="shared" ref="A67:A85" si="23">A66+1</f>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3018,7 +2991,7 @@
         <v>30</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -3047,8 +3020,8 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
@@ -3063,10 +3036,13 @@
         <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J68" t="s">
         <v>16</v>
@@ -3089,8 +3065,8 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>49</v>
@@ -3105,13 +3081,13 @@
         <v>30</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s">
         <v>16</v>
@@ -3134,8 +3110,8 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>49</v>
@@ -3146,17 +3122,8 @@
       <c r="D70" t="s">
         <v>15</v>
       </c>
-      <c r="E70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="J70" t="s">
         <v>16</v>
@@ -3171,16 +3138,16 @@
         <v>45</v>
       </c>
       <c r="N70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <f t="shared" si="22"/>
-        <v>10</v>
+        <f>A69+1</f>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>49</v>
@@ -3195,7 +3162,7 @@
         <v>30</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -3224,8 +3191,8 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -3240,13 +3207,10 @@
         <v>30</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
@@ -3269,8 +3233,8 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>49</v>
@@ -3281,17 +3245,8 @@
       <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="E73" t="s">
-        <v>30</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="J73" t="s">
         <v>16</v>
@@ -3306,16 +3261,16 @@
         <v>45</v>
       </c>
       <c r="N73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <f t="shared" si="22"/>
-        <v>13</v>
+        <f>A72+1</f>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>49</v>
@@ -3330,10 +3285,13 @@
         <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J74" t="s">
         <v>16</v>
@@ -3356,8 +3314,8 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <f t="shared" si="22"/>
-        <v>14</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>49</v>
@@ -3372,7 +3330,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -3401,8 +3359,8 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>49</v>
@@ -3417,7 +3375,7 @@
         <v>30</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
@@ -3446,8 +3404,8 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="23"/>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
         <v>49</v>
@@ -3458,8 +3416,17 @@
       <c r="D77" t="s">
         <v>15</v>
       </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s">
         <v>16</v>
@@ -3474,16 +3441,16 @@
         <v>45</v>
       </c>
       <c r="N77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="23"/>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
         <v>49</v>
@@ -3498,7 +3465,7 @@
         <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G78" t="s">
         <v>26</v>
@@ -3527,8 +3494,8 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="23"/>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>49</v>
@@ -3536,17 +3503,17 @@
       <c r="C79" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>85</v>
+      <c r="D79" t="s">
+        <v>15</v>
       </c>
       <c r="E79" t="s">
         <v>30</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J79" t="s">
         <v>16</v>
@@ -3569,8 +3536,8 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="23"/>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
@@ -3578,17 +3545,20 @@
       <c r="C80" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>85</v>
+      <c r="D80" t="s">
+        <v>15</v>
       </c>
       <c r="E80" t="s">
         <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s">
         <v>16</v>
@@ -3611,8 +3581,8 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <f t="shared" ref="A81:A94" si="23">A80+1</f>
-        <v>20</v>
+        <f t="shared" si="23"/>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
         <v>49</v>
@@ -3623,8 +3593,17 @@
       <c r="D81" t="s">
         <v>15</v>
       </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
       <c r="H81" s="1" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="J81" t="s">
         <v>16</v>
@@ -3639,16 +3618,16 @@
         <v>45</v>
       </c>
       <c r="N81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" si="23"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
         <v>49</v>
@@ -3660,7 +3639,7 @@
         <v>15</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="J82" t="s">
         <v>16</v>
@@ -3683,8 +3662,8 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <f>A81+1</f>
-        <v>21</v>
+        <f t="shared" si="23"/>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
         <v>49</v>
@@ -3695,8 +3674,17 @@
       <c r="D83" t="s">
         <v>15</v>
       </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
       <c r="H83" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="J83" t="s">
         <v>16</v>
@@ -3711,16 +3699,16 @@
         <v>45</v>
       </c>
       <c r="N83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <f>A79+1</f>
-        <v>19</v>
+        <f t="shared" si="23"/>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
@@ -3728,14 +3716,17 @@
       <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D84" t="s">
-        <v>15</v>
+      <c r="D84" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J84" t="s">
         <v>16</v>
@@ -3759,7 +3750,7 @@
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
         <v>49</v>
@@ -3767,20 +3758,17 @@
       <c r="C85" t="s">
         <v>17</v>
       </c>
-      <c r="D85" t="s">
-        <v>15</v>
+      <c r="D85" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
+      <c r="F85" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="J85" t="s">
         <v>16</v>
@@ -3803,8 +3791,8 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <f t="shared" si="23"/>
-        <v>21</v>
+        <f t="shared" ref="A86:A99" si="24">A85+1</f>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
         <v>49</v>
@@ -3815,17 +3803,8 @@
       <c r="D86" t="s">
         <v>15</v>
       </c>
-      <c r="E86" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="J86" t="s">
         <v>16</v>
@@ -3840,16 +3819,16 @@
         <v>45</v>
       </c>
       <c r="N86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <f t="shared" si="23"/>
-        <v>22</v>
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
         <v>49</v>
@@ -3861,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="J87" t="s">
         <v>16</v>
@@ -3884,8 +3863,8 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <f t="shared" si="23"/>
-        <v>23</v>
+        <f>A86+1</f>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
         <v>49</v>
@@ -3896,17 +3875,8 @@
       <c r="D88" t="s">
         <v>15</v>
       </c>
-      <c r="E88" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
       <c r="H88" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s">
         <v>16</v>
@@ -3921,16 +3891,16 @@
         <v>45</v>
       </c>
       <c r="N88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <f t="shared" si="23"/>
-        <v>24</v>
+        <f>A84+1</f>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -3941,17 +3911,11 @@
       <c r="D89" t="s">
         <v>15</v>
       </c>
-      <c r="E89" t="s">
-        <v>30</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="J89" t="s">
         <v>16</v>
@@ -3974,8 +3938,8 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <f t="shared" si="23"/>
-        <v>25</v>
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
         <v>49</v>
@@ -3989,8 +3953,8 @@
       <c r="E90" t="s">
         <v>30</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>80</v>
+      <c r="F90" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="G90" t="s">
         <v>27</v>
@@ -4019,8 +3983,8 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <f t="shared" si="23"/>
-        <v>26</v>
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
         <v>49</v>
@@ -4035,7 +3999,7 @@
         <v>30</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s">
         <v>26</v>
@@ -4064,8 +4028,8 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <f t="shared" si="23"/>
-        <v>27</v>
+        <f t="shared" si="24"/>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
@@ -4076,17 +4040,8 @@
       <c r="D92" t="s">
         <v>15</v>
       </c>
-      <c r="E92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s">
         <v>16</v>
@@ -4101,16 +4056,16 @@
         <v>45</v>
       </c>
       <c r="N92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <f t="shared" si="23"/>
-        <v>28</v>
+        <f t="shared" si="24"/>
+        <v>23</v>
       </c>
       <c r="B93" t="s">
         <v>49</v>
@@ -4125,7 +4080,7 @@
         <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G93" t="s">
         <v>26</v>
@@ -4154,38 +4109,263 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s">
+        <v>90</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" t="s">
+        <v>43</v>
+      </c>
+      <c r="L94" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>45</v>
+      </c>
+      <c r="N94" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <f t="shared" si="24"/>
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" t="s">
+        <v>43</v>
+      </c>
+      <c r="L95" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" t="s">
+        <v>45</v>
+      </c>
+      <c r="N95" t="s">
+        <v>33</v>
+      </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <f t="shared" si="24"/>
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G96" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" t="s">
+        <v>43</v>
+      </c>
+      <c r="L96" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" t="s">
+        <v>45</v>
+      </c>
+      <c r="N96" t="s">
+        <v>33</v>
+      </c>
+      <c r="O96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" t="s">
+        <v>43</v>
+      </c>
+      <c r="L97" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" t="s">
+        <v>45</v>
+      </c>
+      <c r="N97" t="s">
+        <v>33</v>
+      </c>
+      <c r="O97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" t="s">
+        <v>43</v>
+      </c>
+      <c r="L98" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" t="s">
+        <v>45</v>
+      </c>
+      <c r="N98" t="s">
+        <v>33</v>
+      </c>
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <f t="shared" si="24"/>
         <v>29</v>
       </c>
-      <c r="B94" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="H94" s="1" t="s">
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="H99" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J94" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" t="s">
-        <v>43</v>
-      </c>
-      <c r="L94" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N94" t="s">
-        <v>33</v>
-      </c>
-      <c r="O94" t="s">
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" t="s">
+        <v>45</v>
+      </c>
+      <c r="N99" t="s">
+        <v>33</v>
+      </c>
+      <c r="O99" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4200,7 +4380,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4289,5 +4469,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSheet/Ishine.xlsx
+++ b/DataSheet/Ishine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68C3CBC-9377-4EDA-8DFE-3141A8A3D2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA98A02-F105-44F2-A814-FE7D7DD95E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="96">
   <si>
     <t>Si_No</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Mahindra@3069</t>
-  </si>
-  <si>
     <t>//*[@id='Login']</t>
   </si>
   <si>
@@ -311,13 +308,19 @@
   </si>
   <si>
     <t>WAIT(3000)</t>
+  </si>
+  <si>
+    <t>Pawar@2509</t>
+  </si>
+  <si>
+    <t>pawar.suraj2@mahindra.com.mfuat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +346,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFB41A2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -367,10 +384,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -380,8 +398,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -696,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
@@ -816,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -1236,7 +1259,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
@@ -1281,7 +1304,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1326,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -1371,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -1410,10 +1433,10 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1452,7 +1475,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -1497,7 +1520,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -1542,13 +1565,13 @@
         <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -1587,7 +1610,7 @@
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
@@ -1629,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -1668,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -1713,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
@@ -1752,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -1791,7 +1814,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
@@ -1836,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
@@ -1881,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -1926,7 +1949,7 @@
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -1971,7 +1994,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
@@ -2016,10 +2039,10 @@
         <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -2058,7 +2081,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -2103,7 +2126,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
@@ -2145,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -2184,7 +2207,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
@@ -2223,16 +2246,16 @@
         <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -2265,16 +2288,16 @@
         <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -2310,7 +2333,7 @@
         <v>15</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -2346,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -2382,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -2418,10 +2441,10 @@
         <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -2460,7 +2483,7 @@
         <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -2505,7 +2528,7 @@
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
@@ -2547,7 +2570,7 @@
         <v>15</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
@@ -2586,7 +2609,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -2631,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
         <v>80</v>
-      </c>
-      <c r="G46" t="s">
-        <v>81</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>51</v>
@@ -2676,7 +2699,7 @@
         <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
@@ -2721,7 +2744,7 @@
         <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
         <v>26</v>
@@ -2766,7 +2789,7 @@
         <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -2811,7 +2834,7 @@
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s">
         <v>26</v>
@@ -2856,7 +2879,7 @@
         <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -2901,7 +2924,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
@@ -2946,7 +2969,7 @@
         <v>30</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
@@ -2991,7 +3014,7 @@
         <v>30</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -3036,13 +3059,13 @@
         <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J68" t="s">
         <v>16</v>
@@ -3081,7 +3104,7 @@
         <v>30</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" t="s">
         <v>27</v>
@@ -3123,7 +3146,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J70" t="s">
         <v>16</v>
@@ -3162,7 +3185,7 @@
         <v>30</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -3207,10 +3230,10 @@
         <v>30</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
@@ -3246,7 +3269,7 @@
         <v>15</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J73" t="s">
         <v>16</v>
@@ -3285,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s">
         <v>26</v>
@@ -3330,7 +3353,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -3375,7 +3398,7 @@
         <v>30</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G76" t="s">
         <v>26</v>
@@ -3420,7 +3443,7 @@
         <v>30</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
@@ -3465,7 +3488,7 @@
         <v>30</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G78" t="s">
         <v>26</v>
@@ -3510,10 +3533,10 @@
         <v>30</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="J79" t="s">
         <v>16</v>
@@ -3552,7 +3575,7 @@
         <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G80" t="s">
         <v>27</v>
@@ -3597,7 +3620,7 @@
         <v>30</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G81" t="s">
         <v>26</v>
@@ -3639,7 +3662,7 @@
         <v>15</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J82" t="s">
         <v>16</v>
@@ -3678,7 +3701,7 @@
         <v>30</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G83" t="s">
         <v>26</v>
@@ -3717,16 +3740,16 @@
         <v>17</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J84" t="s">
         <v>16</v>
@@ -3759,16 +3782,16 @@
         <v>17</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J85" t="s">
         <v>16</v>
@@ -3804,7 +3827,7 @@
         <v>15</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s">
         <v>16</v>
@@ -3840,7 +3863,7 @@
         <v>15</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J87" t="s">
         <v>16</v>
@@ -3876,7 +3899,7 @@
         <v>15</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J88" t="s">
         <v>16</v>
@@ -3912,10 +3935,10 @@
         <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="J89" t="s">
         <v>16</v>
@@ -3954,7 +3977,7 @@
         <v>30</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s">
         <v>27</v>
@@ -3999,7 +4022,7 @@
         <v>30</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s">
         <v>26</v>
@@ -4041,7 +4064,7 @@
         <v>15</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J92" t="s">
         <v>16</v>
@@ -4080,7 +4103,7 @@
         <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s">
         <v>26</v>
@@ -4125,10 +4148,10 @@
         <v>30</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>51</v>
@@ -4170,7 +4193,7 @@
         <v>30</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s">
         <v>27</v>
@@ -4215,7 +4238,7 @@
         <v>30</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G96" t="s">
         <v>26</v>
@@ -4260,7 +4283,7 @@
         <v>30</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s">
         <v>27</v>
@@ -4305,7 +4328,7 @@
         <v>30</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s">
         <v>26</v>
@@ -4348,7 +4371,7 @@
       </c>
       <c r="F99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J99" t="s">
         <v>16</v>
@@ -4377,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4423,13 +4446,13 @@
         <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4451,24 +4474,32 @@
       <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>91</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{E5FE6660-B414-48CB-9707-C209D20E899F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataSheet/Ishine.xlsx
+++ b/DataSheet/Ishine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA98A02-F105-44F2-A814-FE7D7DD95E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD2CBD-6E0B-4525-AE06-FA5FA0D18D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="98">
   <si>
     <t>Si_No</t>
   </si>
@@ -314,13 +314,19 @@
   </si>
   <si>
     <t>pawar.suraj2@mahindra.com.mfuat</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>CHROME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +366,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -388,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -402,6 +415,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="74" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,6 +888,9 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="H4" t="s">
         <v>47</v>
       </c>
@@ -2861,10 +2878,55 @@
         <v>21</v>
       </c>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <f>A53+1</f>
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L63" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" t="s">
+        <v>45</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <f t="shared" ref="A64:A65" si="22">A63+1</f>
-        <v>1</v>
+        <f>A63+1</f>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -2879,13 +2941,13 @@
         <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J64" t="s">
         <v>16</v>
@@ -2908,8 +2970,8 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f>A64+1</f>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -2924,13 +2986,13 @@
         <v>30</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J65" t="s">
         <v>16</v>
@@ -2953,8 +3015,8 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <f>A64+1</f>
-        <v>2</v>
+        <f>A65+1</f>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -2965,17 +3027,8 @@
       <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>27</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J66" t="s">
         <v>16</v>
@@ -2990,22 +3043,22 @@
         <v>45</v>
       </c>
       <c r="N66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <f t="shared" ref="A67:A85" si="23">A66+1</f>
-        <v>3</v>
+        <f>A66+1</f>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -3014,13 +3067,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s">
         <v>16</v>
@@ -3029,28 +3082,28 @@
         <v>43</v>
       </c>
       <c r="L67" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N67" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O67" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <f t="shared" si="23"/>
-        <v>4</v>
+        <f>A67+1</f>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -3059,13 +3112,13 @@
         <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J68" t="s">
         <v>16</v>
@@ -3074,22 +3127,22 @@
         <v>43</v>
       </c>
       <c r="L68" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N68" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O68" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <f t="shared" si="23"/>
-        <v>5</v>
+        <f>A68+1</f>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>49</v>
@@ -3104,13 +3157,13 @@
         <v>30</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J69" t="s">
         <v>16</v>
@@ -3133,8 +3186,8 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <f t="shared" si="23"/>
-        <v>6</v>
+        <f>A69+1</f>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>49</v>
@@ -3145,8 +3198,17 @@
       <c r="D70" t="s">
         <v>15</v>
       </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
       <c r="H70" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s">
         <v>16</v>
@@ -3161,16 +3223,16 @@
         <v>45</v>
       </c>
       <c r="N70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <f>A69+1</f>
-        <v>6</v>
+        <f>A70+1</f>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>49</v>
@@ -3185,7 +3247,7 @@
         <v>30</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -3214,8 +3276,8 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <f t="shared" si="23"/>
-        <v>7</v>
+        <f t="shared" ref="A72:A107" si="22">A71+1</f>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>49</v>
@@ -3230,10 +3292,13 @@
         <v>30</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
@@ -3256,8 +3321,8 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <f t="shared" si="23"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
         <v>49</v>
@@ -3268,8 +3333,17 @@
       <c r="D73" t="s">
         <v>15</v>
       </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
       <c r="H73" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="J73" t="s">
         <v>16</v>
@@ -3284,16 +3358,16 @@
         <v>45</v>
       </c>
       <c r="N73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <f>A72+1</f>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
         <v>49</v>
@@ -3308,13 +3382,13 @@
         <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s">
         <v>16</v>
@@ -3337,8 +3411,8 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <f t="shared" si="23"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>49</v>
@@ -3353,13 +3427,13 @@
         <v>30</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J75" t="s">
         <v>16</v>
@@ -3382,8 +3456,8 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <f t="shared" si="23"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
         <v>49</v>
@@ -3398,13 +3472,13 @@
         <v>30</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="J76" t="s">
         <v>16</v>
@@ -3427,8 +3501,8 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <f t="shared" si="23"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
         <v>49</v>
@@ -3443,7 +3517,7 @@
         <v>30</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
@@ -3472,8 +3546,8 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <f t="shared" si="23"/>
-        <v>12</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
         <v>49</v>
@@ -3484,17 +3558,8 @@
       <c r="D78" t="s">
         <v>15</v>
       </c>
-      <c r="E78" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="J78" t="s">
         <v>16</v>
@@ -3509,16 +3574,16 @@
         <v>45</v>
       </c>
       <c r="N78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <f t="shared" si="23"/>
-        <v>13</v>
+        <f t="shared" si="22"/>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
         <v>49</v>
@@ -3533,10 +3598,13 @@
         <v>30</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="G79" t="s">
+        <v>26</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J79" t="s">
         <v>16</v>
@@ -3559,8 +3627,8 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <f t="shared" si="23"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
         <v>49</v>
@@ -3575,13 +3643,10 @@
         <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="J80" t="s">
         <v>16</v>
@@ -3604,8 +3669,8 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <f t="shared" si="23"/>
-        <v>15</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
         <v>49</v>
@@ -3616,17 +3681,8 @@
       <c r="D81" t="s">
         <v>15</v>
       </c>
-      <c r="E81" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
       <c r="H81" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="J81" t="s">
         <v>16</v>
@@ -3641,16 +3697,16 @@
         <v>45</v>
       </c>
       <c r="N81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <f t="shared" si="23"/>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
         <v>49</v>
@@ -3661,8 +3717,17 @@
       <c r="D82" t="s">
         <v>15</v>
       </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
       <c r="H82" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J82" t="s">
         <v>16</v>
@@ -3677,16 +3742,16 @@
         <v>45</v>
       </c>
       <c r="N82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <f t="shared" si="23"/>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
         <v>49</v>
@@ -3701,13 +3766,13 @@
         <v>30</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J83" t="s">
         <v>16</v>
@@ -3730,8 +3795,8 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <f t="shared" si="23"/>
-        <v>18</v>
+        <f t="shared" si="22"/>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
         <v>49</v>
@@ -3739,17 +3804,20 @@
       <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>84</v>
+      <c r="D84" t="s">
+        <v>15</v>
       </c>
       <c r="E84" t="s">
         <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J84" t="s">
         <v>16</v>
@@ -3772,8 +3840,8 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <f t="shared" si="23"/>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
         <v>49</v>
@@ -3781,17 +3849,20 @@
       <c r="C85" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>84</v>
+      <c r="D85" t="s">
+        <v>15</v>
       </c>
       <c r="E85" t="s">
         <v>30</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J85" t="s">
         <v>16</v>
@@ -3814,8 +3885,8 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <f t="shared" ref="A86:A99" si="24">A85+1</f>
-        <v>20</v>
+        <f t="shared" si="22"/>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
         <v>49</v>
@@ -3826,8 +3897,17 @@
       <c r="D86" t="s">
         <v>15</v>
       </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
       <c r="H86" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="J86" t="s">
         <v>16</v>
@@ -3842,16 +3922,16 @@
         <v>45</v>
       </c>
       <c r="N86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
         <v>49</v>
@@ -3862,8 +3942,14 @@
       <c r="D87" t="s">
         <v>15</v>
       </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H87" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="J87" t="s">
         <v>16</v>
@@ -3878,16 +3964,16 @@
         <v>45</v>
       </c>
       <c r="N87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <f>A86+1</f>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
         <v>49</v>
@@ -3898,8 +3984,17 @@
       <c r="D88" t="s">
         <v>15</v>
       </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
       <c r="H88" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s">
         <v>16</v>
@@ -3914,16 +4009,16 @@
         <v>45</v>
       </c>
       <c r="N88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <f>A84+1</f>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
         <v>49</v>
@@ -3934,11 +4029,17 @@
       <c r="D89" t="s">
         <v>15</v>
       </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
       <c r="F89" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="G89" t="s">
+        <v>26</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="J89" t="s">
         <v>16</v>
@@ -3961,8 +4062,8 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <f t="shared" si="24"/>
-        <v>20</v>
+        <f t="shared" si="22"/>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
         <v>49</v>
@@ -3973,17 +4074,8 @@
       <c r="D90" t="s">
         <v>15</v>
       </c>
-      <c r="E90" t="s">
-        <v>30</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="J90" t="s">
         <v>16</v>
@@ -3998,16 +4090,16 @@
         <v>45</v>
       </c>
       <c r="N90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <f t="shared" si="24"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
         <v>49</v>
@@ -4022,7 +4114,7 @@
         <v>30</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G91" t="s">
         <v>26</v>
@@ -4051,8 +4143,8 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <f t="shared" si="24"/>
-        <v>22</v>
+        <f t="shared" si="22"/>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
         <v>49</v>
@@ -4060,11 +4152,17 @@
       <c r="C92" t="s">
         <v>17</v>
       </c>
-      <c r="D92" t="s">
-        <v>15</v>
+      <c r="D92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J92" t="s">
         <v>16</v>
@@ -4079,16 +4177,16 @@
         <v>45</v>
       </c>
       <c r="N92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <f t="shared" si="24"/>
-        <v>23</v>
+        <f t="shared" si="22"/>
+        <v>31</v>
       </c>
       <c r="B93" t="s">
         <v>49</v>
@@ -4096,20 +4194,17 @@
       <c r="C93" t="s">
         <v>17</v>
       </c>
-      <c r="D93" t="s">
-        <v>15</v>
+      <c r="D93" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E93" t="s">
         <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="J93" t="s">
         <v>16</v>
@@ -4132,8 +4227,8 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <f t="shared" si="24"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
         <v>49</v>
@@ -4144,17 +4239,8 @@
       <c r="D94" t="s">
         <v>15</v>
       </c>
-      <c r="E94" t="s">
-        <v>30</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s">
-        <v>89</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="J94" t="s">
         <v>16</v>
@@ -4169,16 +4255,16 @@
         <v>45</v>
       </c>
       <c r="N94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <f t="shared" si="24"/>
-        <v>25</v>
+        <f t="shared" si="22"/>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
         <v>49</v>
@@ -4189,17 +4275,8 @@
       <c r="D95" t="s">
         <v>15</v>
       </c>
-      <c r="E95" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="J95" t="s">
         <v>16</v>
@@ -4214,16 +4291,16 @@
         <v>45</v>
       </c>
       <c r="N95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <f t="shared" si="24"/>
-        <v>26</v>
+        <f t="shared" si="22"/>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
         <v>49</v>
@@ -4234,17 +4311,8 @@
       <c r="D96" t="s">
         <v>15</v>
       </c>
-      <c r="E96" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
-      </c>
       <c r="H96" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="J96" t="s">
         <v>16</v>
@@ -4259,16 +4327,16 @@
         <v>45</v>
       </c>
       <c r="N96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <f t="shared" si="24"/>
-        <v>27</v>
+        <f t="shared" si="22"/>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
         <v>49</v>
@@ -4279,17 +4347,11 @@
       <c r="D97" t="s">
         <v>15</v>
       </c>
-      <c r="E97" t="s">
-        <v>30</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="J97" t="s">
         <v>16</v>
@@ -4312,8 +4374,8 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <f t="shared" si="24"/>
-        <v>28</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
         <v>49</v>
@@ -4327,14 +4389,14 @@
       <c r="E98" t="s">
         <v>30</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>83</v>
+      <c r="F98" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="G98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J98" t="s">
         <v>16</v>
@@ -4357,8 +4419,8 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <f t="shared" si="24"/>
-        <v>29</v>
+        <f t="shared" si="22"/>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
         <v>49</v>
@@ -4369,26 +4431,377 @@
       <c r="D99" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="E99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
       <c r="H99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" t="s">
+        <v>43</v>
+      </c>
+      <c r="L99" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" t="s">
+        <v>45</v>
+      </c>
+      <c r="N99" t="s">
+        <v>33</v>
+      </c>
+      <c r="O99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <f t="shared" si="22"/>
+        <v>38</v>
+      </c>
+      <c r="B100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" t="s">
+        <v>43</v>
+      </c>
+      <c r="L100" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" t="s">
+        <v>45</v>
+      </c>
+      <c r="N100" t="s">
+        <v>34</v>
+      </c>
+      <c r="O100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <f t="shared" si="22"/>
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" t="s">
+        <v>43</v>
+      </c>
+      <c r="L101" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" t="s">
+        <v>45</v>
+      </c>
+      <c r="N101" t="s">
+        <v>33</v>
+      </c>
+      <c r="O101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <f t="shared" si="22"/>
+        <v>40</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" t="s">
+        <v>43</v>
+      </c>
+      <c r="L102" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" t="s">
+        <v>45</v>
+      </c>
+      <c r="N102" t="s">
+        <v>33</v>
+      </c>
+      <c r="O102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <f t="shared" si="22"/>
+        <v>41</v>
+      </c>
+      <c r="B103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" t="s">
+        <v>43</v>
+      </c>
+      <c r="L103" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" t="s">
+        <v>45</v>
+      </c>
+      <c r="N103" t="s">
+        <v>33</v>
+      </c>
+      <c r="O103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" t="s">
+        <v>43</v>
+      </c>
+      <c r="L104" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" t="s">
+        <v>45</v>
+      </c>
+      <c r="N104" t="s">
+        <v>33</v>
+      </c>
+      <c r="O104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <f t="shared" si="22"/>
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" t="s">
+        <v>43</v>
+      </c>
+      <c r="L105" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" t="s">
+        <v>45</v>
+      </c>
+      <c r="N105" t="s">
+        <v>33</v>
+      </c>
+      <c r="O105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <f t="shared" si="22"/>
+        <v>44</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106" t="s">
+        <v>43</v>
+      </c>
+      <c r="L106" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" t="s">
+        <v>45</v>
+      </c>
+      <c r="N106" t="s">
+        <v>33</v>
+      </c>
+      <c r="O106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+      <c r="B107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="H107" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J99" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" t="s">
-        <v>43</v>
-      </c>
-      <c r="L99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" t="s">
-        <v>45</v>
-      </c>
-      <c r="N99" t="s">
-        <v>33</v>
-      </c>
-      <c r="O99" t="s">
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" t="s">
+        <v>43</v>
+      </c>
+      <c r="L107" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" t="s">
+        <v>45</v>
+      </c>
+      <c r="N107" t="s">
+        <v>33</v>
+      </c>
+      <c r="O107" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4400,10 +4813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4413,14 +4826,15 @@
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4436,26 +4850,29 @@
       <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4471,33 +4888,36 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{E5FE6660-B414-48CB-9707-C209D20E899F}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{E5FE6660-B414-48CB-9707-C209D20E899F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
